--- a/CashFlow/STX_cashflow.xlsx
+++ b/CashFlow/STX_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5064000000.0</v>
+        <v>-181000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4885000000.0</v>
+        <v>-170000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3460000000.0</v>
+        <v>-282000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2072000000.0</v>
+        <v>-166000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>961000000.0</v>
+        <v>-95000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-45000000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>30000000.0</v>
+        <v>7194000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-139000000.0</v>
+        <v>7163000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-77000000.0</v>
+        <v>5444000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-80000000.0</v>
+        <v>3622000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-75000000.0</v>
+        <v>1789000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-76000000.0</v>
